--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -1668,12 +1668,12 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
@@ -1718,12 +1718,12 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
@@ -1768,7 +1768,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1814,12 +1814,12 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
@@ -1865,7 +1865,7 @@
       <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
@@ -1910,12 +1910,12 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="H27" s="15" t="n"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2051,7 +2051,7 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
@@ -2096,7 +2096,7 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
@@ -2141,7 +2141,7 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
@@ -2232,7 +2232,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2278,7 +2278,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2370,12 +2370,12 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
@@ -2403,13 +2403,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>enfore closely closely coupled applications into the same SAP Subscription to avoid additional routing and management complexity</t>
+          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2420,12 +2420,12 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
@@ -2459,7 +2459,7 @@
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,12 +2470,12 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
@@ -2503,13 +2503,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription).</t>
+          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,12 +2520,12 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
@@ -2553,13 +2553,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
+          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,19 +2570,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2603,13 +2599,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
+          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2620,7 +2616,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2628,7 +2624,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2649,13 +2645,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2666,15 +2662,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="n"/>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,15 +2712,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -2740,18 +2740,18 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use SAP Solution Manager and Azure Monitor for SAP Solutions to monitor SAP HANA, high-availability SUSE clusters, and SQL systems</t>
+          <t>Help protect your HANA database by using the Azure Backup service.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2760,13 +2760,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2782,12 +2790,12 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine to access VM monitoring and configuration data.</t>
+          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2804,19 +2812,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2832,18 +2835,18 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2854,19 +2857,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2882,12 +2881,12 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Protect your HANA database with Azure Backup service. If you deploy Azure NetApp Files (ANF) for your HANA database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots</t>
+          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2904,19 +2903,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2932,18 +2931,18 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
+          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2954,19 +2953,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2982,12 +2976,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher Connection Monitor to monitor SAP database and application server latency metrics, or collect and display network latency measurements with Azure Monitor.</t>
+          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3004,19 +2998,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3032,12 +3021,12 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
+          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3054,19 +3043,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3082,18 +3071,18 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>For each Azure subscription, run an Azure Availability Zone latency test before zonal deployment to choose low-latency zones for SAP on Azure deployment.</t>
+          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3104,15 +3093,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3133,7 +3126,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Implement threat protection for SAP with Microsoft Sentinel.</t>
+          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3150,15 +3143,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3179,13 +3176,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Enforcing configuration of update management through policy ensures all VMs are included in the patch management regimen, provides application teams with the ability to manage patch deployment for their VMs, and provides central IT with visibility and enforcement capabilities across all VMs</t>
+          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3196,14 +3193,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3224,7 +3226,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Enable VM Insights for VM's running SAP Workloads.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3241,15 +3243,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3270,7 +3276,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
+          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3287,14 +3293,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3315,13 +3326,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3332,14 +3343,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3350,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3377,19 +3393,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3400,23 +3411,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
+          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3427,19 +3438,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3450,17 +3461,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
+          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3477,19 +3488,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3500,17 +3511,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Consider reserving I.P address on DR side when configuring ASR</t>
+          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3527,19 +3538,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3550,17 +3561,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3577,19 +3588,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3600,23 +3611,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Ensure Accelerated Networking is enable for all VM where it is applicable.</t>
+          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3627,19 +3638,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3650,17 +3656,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3677,19 +3683,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3700,17 +3706,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Use SAP Web dispatcher or third party service like NetScaler in conjunction with Application gateway if necessary to overcome reverse proxy  limitation for SAP web Apps.</t>
+          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3727,19 +3733,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3750,23 +3752,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3777,19 +3779,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3800,17 +3798,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3827,19 +3825,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3850,17 +3848,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
+          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3877,19 +3875,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3905,12 +3903,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ensure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR) for HA configuration on the DBMS layer</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3925,13 +3923,21 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
-      <c r="I68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3947,12 +3953,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>If Azure NetApp Files is used for SAP deployment , ensure that only one delegate subnet can exist in a Vnet for Azure NetAppFiles</t>
+          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3969,19 +3975,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3997,12 +4003,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within SAP application layer, like App subnet, DB subnet and Web subnet etc.</t>
+          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4019,19 +4025,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4047,12 +4053,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
+          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4069,19 +4075,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4097,18 +4103,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported</t>
+          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4117,13 +4123,21 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
-      <c r="I72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2731110</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4139,12 +4153,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4159,13 +4173,21 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="n"/>
-      <c r="I73" s="15" t="n"/>
+      <c r="H73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4176,23 +4198,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4203,15 +4225,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4222,17 +4248,17 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4249,15 +4275,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4268,23 +4298,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>For SAP database server encryption, use the SAP HANA native encryption technology. If you're using Azure SQL Database, use Transparent Data Encryption (TDE) offered by the DBMS provider to secure your data and log files, and ensure the backups are also encrypted.</t>
+          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4295,15 +4325,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4314,23 +4348,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled by default</t>
+          <t>Consider reserving I.P address on DR side when configuring ASR</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4341,15 +4375,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4360,23 +4398,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4387,15 +4425,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4406,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4433,15 +4475,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4452,23 +4498,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4479,15 +4525,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4498,17 +4548,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes</t>
+          <t>Use SAP Web dispatcher or third party service like NetScaler in conjunction with Application gateway if necessary to overcome reverse proxy  limitation for SAP web Apps.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4523,17 +4573,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4544,17 +4590,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4571,15 +4617,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4590,17 +4640,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4617,15 +4667,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4636,17 +4690,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>When you enable Microsoft Defender for Cloud Standard for SAP, make sure to exclude the SAP database servers from any policy that installs endpoint protection.</t>
+          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4663,15 +4717,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4682,17 +4740,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4709,15 +4767,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4728,17 +4790,17 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4755,15 +4817,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4774,23 +4840,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) with SAML 2.0 can also provide SSO to a range of SAP applications and platforms like SAP NetWeaver, SAP HANA, and the SAP Cloud Platform</t>
+          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4801,15 +4867,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4820,17 +4890,17 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Make sure you harden the operating system to eradicate vulnerabilities that could lead to attacks on the SAP database.</t>
+          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4847,15 +4917,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4866,17 +4940,17 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4893,15 +4967,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4912,23 +4990,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4939,15 +5017,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4958,17 +5040,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4985,15 +5067,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5004,23 +5090,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Disk config for Oracle, SQL, HANA</t>
+          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5029,13 +5115,21 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="n"/>
-      <c r="I92" s="15" t="n"/>
+      <c r="H92" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5044,389 +5138,1064 @@
       <c r="P92" s="25" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="21" t="n"/>
-      <c r="C93" s="21" t="n"/>
+      <c r="A93" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B93" s="21" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C93" s="21" t="inlineStr">
+        <is>
+          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
+        </is>
+      </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="n"/>
-      <c r="I93" s="15" t="n"/>
+      <c r="H93" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
-      <c r="L93" s="25" t="n"/>
+      <c r="L93" s="25" t="inlineStr">
+        <is>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+        </is>
+      </c>
       <c r="M93" s="25" t="n"/>
       <c r="N93" s="25" t="n"/>
       <c r="O93" s="25" t="n"/>
       <c r="P93" s="25" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1">
-      <c r="A94" s="21" t="n"/>
-      <c r="B94" s="21" t="n"/>
-      <c r="C94" s="21" t="n"/>
+      <c r="A94" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B94" s="21" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
-      <c r="E94" s="21" t="n"/>
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="n"/>
-      <c r="I94" s="15" t="n"/>
+      <c r="H94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="25" t="n"/>
+      <c r="L94" s="25" t="inlineStr">
+        <is>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+        </is>
+      </c>
       <c r="M94" s="25" t="n"/>
       <c r="N94" s="25" t="n"/>
       <c r="O94" s="25" t="n"/>
       <c r="P94" s="25" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1">
-      <c r="A95" s="21" t="n"/>
-      <c r="B95" s="21" t="n"/>
-      <c r="C95" s="21" t="n"/>
+      <c r="A95" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B95" s="21" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C95" s="21" t="inlineStr">
+        <is>
+          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
+        </is>
+      </c>
       <c r="D95" s="21" t="n"/>
-      <c r="E95" s="21" t="n"/>
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="n"/>
-      <c r="I95" s="15" t="n"/>
+      <c r="H95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="25" t="n"/>
+      <c r="L95" s="25" t="inlineStr">
+        <is>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+        </is>
+      </c>
       <c r="M95" s="25" t="n"/>
       <c r="N95" s="25" t="n"/>
       <c r="O95" s="25" t="n"/>
       <c r="P95" s="25" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1">
-      <c r="A96" s="21" t="n"/>
-      <c r="B96" s="21" t="n"/>
-      <c r="C96" s="21" t="n"/>
+      <c r="A96" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B96" s="21" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer’s existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
+        </is>
+      </c>
       <c r="D96" s="21" t="n"/>
-      <c r="E96" s="21" t="n"/>
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="n"/>
+      <c r="H96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="25" t="n"/>
+      <c r="L96" s="25" t="inlineStr">
+        <is>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+        </is>
+      </c>
       <c r="M96" s="25" t="n"/>
       <c r="N96" s="25" t="n"/>
       <c r="O96" s="25" t="n"/>
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="n"/>
+      <c r="H97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="n"/>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>For SAP database server encryption, use the SAP HANA native encryption technology. If you're using Azure SQL Database, use Transparent Data Encryption (TDE) offered by the DBMS provider to secure your data and log files, and ensure the backups are also encrypted.</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="n"/>
+      <c r="H99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>Azure Storage encryption is enabled by default</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="n"/>
+      <c r="H102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="n"/>
+      <c r="H103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="n"/>
+      <c r="H104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>When you enable Microsoft Defender for Cloud Standard for SAP, make sure to exclude the SAP database servers from any policy that installs endpoint protection.</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>Delegate an SAP admin custom role with just-in-time access.</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>Azure Active Directory (Azure AD) with SAML 2.0 can also provide SSO to a range of SAP applications and platforms like SAP NetWeaver, SAP HANA, and the SAP Cloud Platform</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>Make sure you harden the operating system to eradicate vulnerabilities that could lead to attacks on the SAP database.</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="n"/>
-      <c r="B113" s="21" t="n"/>
-      <c r="C113" s="21" t="n"/>
+      <c r="A113" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B113" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C113" s="21" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D113" s="21" t="n"/>
-      <c r="E113" s="21" t="n"/>
+      <c r="E113" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="n"/>
+      <c r="H113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="n"/>
+      <c r="L113" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="n"/>
-      <c r="B114" s="21" t="n"/>
-      <c r="C114" s="21" t="n"/>
+      <c r="A114" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B114" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C114" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D114" s="21" t="n"/>
-      <c r="E114" s="21" t="n"/>
+      <c r="E114" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="n"/>
+      <c r="H114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="n"/>
+      <c r="L114" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="n"/>
-      <c r="B115" s="21" t="n"/>
-      <c r="C115" s="21" t="n"/>
+      <c r="A115" s="21" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="B115" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C115" s="21" t="inlineStr">
+        <is>
+          <t>Disk config for Oracle, SQL, HANA</t>
+        </is>
+      </c>
       <c r="D115" s="21" t="n"/>
-      <c r="E115" s="21" t="n"/>
+      <c r="E115" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="n"/>
+      <c r="L115" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
@@ -8367,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F93" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Use SAP Web dispatcher or third party service like NetScaler in conjunction with Application gateway if necessary to overcome reverse proxy  limitation for SAP web Apps.</t>
+          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4573,13 +4573,21 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="n"/>
-      <c r="I81" s="15" t="n"/>
+      <c r="H81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Do not combine ASCS and Database cluster on to single/same VM</t>
+          <t>Azure doesn't currently support combining ASCS and db HA in the same Linux Pacemaker cluster; separate them into individual clusters. However, you can combine up to five multiple central-services clusters into a pair of VMs.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1094,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Make sure the Floating IP is enabled on the Load balancer</t>
+          <t>Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1140,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Do not mix servers of different roles in the same availability set. Keep central services VMs, database VMs, application VMs in their own availability sets</t>
+          <t>Both VMs in the HA pair should be deployed in an availability set, or Availability Zones should be the same size and have the same storage configuration</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1186,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Use one proximity placement group per SAP SID. Groups don't span across Availability Zones or Azure regions</t>
+          <t>Native database replication technology should be used to synchronize the database in a HA pair.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure doesn't currently support combining ASCS and db HA in the same Linux Pacemaker cluster; separate them into individual clusters. However, you can combine up to five multiple central-services clusters into a pair of VMs.</t>
+          <t>Perform a point-in-time recovery for your production databases at any point and in a time frame that meets your RTO; point-in-time recovery typically includes operator errors deleting data either on the DBMS layer or through SAP, incidentally</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1278,7 +1278,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
+          <t>The CIDR for the primary virtual network (VNet) shouldn't conflict or overlap with the CIDR of the DR site's Vnet</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,17 +1314,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1345,7 +1341,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Both VMs in the HA pair should be deployed in an availability set, or Availability Zones should be the same size and have the same storage configuration</t>
+          <t>Use Site Recovery to replicate an application server to a DR site. Site Recovery can also help with replicating central-services cluster VMs to the DR site. When you invoke DR, you'll need to reconfigure the Linux Pacemaker cluster on the DR site (for example, replace the VIP or SBD, run corosync.conf, and more).</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1360,17 +1356,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1391,7 +1383,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Native database replication technology should be used to synchronize the database in a HA pair.</t>
+          <t>Native database replication should be used to synchronize data to the DR site, rather than Azure Site Recovery</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1406,17 +1398,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1432,18 +1420,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Perform a point-in-time recovery for your production databases at any point and in a time frame that meets your RTO; point-in-time recovery typically includes operator errors deleting data either on the DBMS layer or through SAP, incidentally</t>
+          <t>Consider the availability of SAP software against single points of failure. This includes single points of failure within applications such as DBMSs utilized in SAP NetWeaver and SAP S/4HANA architectures, SAP ABAP and ASCS + SCS. Also, other tools such as SAP Web Dispatcher.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1454,15 +1442,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
+        </is>
+      </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1478,18 +1470,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>The CIDR for the primary virtual network (VNet) shouldn't conflict or overlap with the CIDR of the DR site's Vnet</t>
+          <t>For SAP and SAP databases, consider implementing automatic failover clusters. In Windows, Windows Server Failover Clustering supports failover. In Linux, Linux Pacemaker or third-party tools like SIOS Protection Suite and Veritas InfoScale support failover.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1498,13 +1490,21 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
+      <c r="H17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+        </is>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,18 +1520,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use Site Recovery to replicate an application server to a DR site. Site Recovery can also help with replicating central-services cluster VMs to the DR site. When you invoke DR, you'll need to reconfigure the Linux Pacemaker cluster on the DR site (for example, replace the VIP or SBD, run corosync.conf, and more).</t>
+          <t>Azure doesn't support architectures in which the primary and secondary VMs share storage for DBMS data. For the DBMS layer, the common architecture pattern is to replicate databases at the same time and with different storage stacks than the ones that the primary and secondary VMs use.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1540,13 +1540,21 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+        </is>
+      </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1562,18 +1570,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Native database replication should be used to synchronize data to the DR site, rather than Azure Site Recovery</t>
+          <t>The DBMS data and transaction/redo log files are stored in Azure supported block storage or Azure NetApp Files. Azure Files or Azure Premium Files isn't supported as storage for DBMS data and/or redo log files with SAP workload.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1582,13 +1590,21 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1599,23 +1615,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Make quota requests for correct VM SKU and Zones</t>
+          <t>You can use Azure shared disks in Windows for ASCS + SCS components and specific high-availability scenarios. Set up your failover clusters separately for SAP application layer components and the DBMS layer. Azure doesn't currently support high-availability architectures that combine SAP application layer components and the DBMS layer into one failover cluster.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1624,13 +1640,21 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
+      <c r="H20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1641,17 +1665,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Most failover clusters for SAP application layer components (ASCS) and the DBMS layer require a virtual IP address for a failover cluster.  Azure Load Balancer should handle the virtual IP address for all other cases. One design principle is to use one load balancer per cluster configuration. We recommend that you use the standard version of the load balancer (Standard Load Balancer SKU).</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1668,19 +1692,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1691,23 +1715,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
+          <t>Make sure the Floating IP is enabled on the Load balancer</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1718,19 +1742,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1741,23 +1765,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
+          <t>Before you deploy your high-availability infrastructure, and depending on the region you choose, determine whether to deploy with an Azure availability set or an availability zone.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1768,15 +1792,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1787,23 +1815,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>If you want to meet the infrastructure SLAs for your applications for SAP components (central services, application servers, and databases), you must choose the same high availability options (VMs, availability sets, availability zones) for all components.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1814,19 +1842,15 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1837,23 +1861,23 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>Do not mix servers of different roles in the same availability set. Keep central services VMs, database VMs, application VMs in their own availability sets</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1862,17 +1886,21 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="n"/>
+      <c r="H25" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1883,17 +1911,17 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
+          <t>You can't deploy Azure availability sets within an Azure availability zone unless you use proximity placement groups.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1910,19 +1938,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,23 +1961,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC – Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>When you create availability sets, use the maximum number of fault domains and update domains available. For example, if you deploy more than two VMs in one availability set, use the maximum number of fault domains (three) and enough update domains to limit the effect of potential physical hardware failures, network outages, or power interruptions, in addition to Azure planned maintenance. The default number of fault domains is two, and you can't change it online later.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1958,17 +1986,21 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="n"/>
+      <c r="H27" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1979,23 +2011,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC – Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>When you use Azure proximity placement groups in an availability set deployment, all three SAP components (central services, application server, and database) should be in the same proximity placement group.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2006,14 +2038,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2024,23 +2056,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
+          <t>Use one proximity placement group per SAP SID. Groups don't span across Availability Zones or Azure regions</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2051,14 +2083,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2069,17 +2101,17 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP HANA</t>
+          <t>Make quota requests for correct VM SKU and Zones</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2094,16 +2126,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2124,13 +2152,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2141,14 +2169,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2169,7 +2202,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
+          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2186,15 +2219,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2215,7 +2252,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
+          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2232,7 +2269,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2240,7 +2277,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2261,7 +2298,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP BTP</t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2278,15 +2315,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2307,7 +2348,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2322,17 +2363,17 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2343,17 +2384,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>enforce existing Management Group policies to SAP Subscriptions</t>
+          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2370,19 +2411,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2393,23 +2434,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC – Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2418,21 +2459,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2443,23 +2480,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC – Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2470,19 +2507,15 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2493,23 +2526,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
+          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2520,19 +2553,15 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2543,23 +2572,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
+          <t>Implement SSO to SAP HANA</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,7 +2599,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2578,7 +2607,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2589,23 +2618,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
+          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2616,7 +2645,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2624,7 +2653,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2635,23 +2664,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
+          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2662,19 +2691,15 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2685,17 +2710,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
+          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2712,19 +2737,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2735,23 +2756,23 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Help protect your HANA database by using the Azure Backup service.</t>
+          <t>Implement SSO to SAP BTP</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2762,19 +2783,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2785,17 +2802,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
+          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2812,14 +2829,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2830,23 +2847,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
+          <t>enforce existing Management Group policies to SAP Subscriptions</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2857,15 +2874,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+        </is>
+      </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2876,23 +2897,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
+          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2903,19 +2924,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2926,23 +2947,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
+          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2953,14 +2974,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2971,23 +2997,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
+          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2998,14 +3024,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3016,23 +3047,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
+          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3043,19 +3074,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3066,23 +3093,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
+          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3093,19 +3120,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3116,23 +3139,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
+          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3143,19 +3166,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3166,23 +3189,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
+          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3193,19 +3216,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3221,18 +3244,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Help protect your HANA database by using the Azure Backup service.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3243,19 +3266,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3271,12 +3294,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
+          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3293,19 +3316,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3321,12 +3339,12 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3343,19 +3361,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3371,12 +3384,12 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
+          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3393,14 +3406,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3416,18 +3434,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
+          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3438,19 +3456,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3466,12 +3479,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
+          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3488,19 +3501,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3516,12 +3524,12 @@
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
+          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3538,19 +3546,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3566,18 +3574,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
+          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3588,19 +3596,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3616,18 +3624,18 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
+          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3638,14 +3646,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3661,18 +3674,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3683,19 +3696,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3711,12 +3724,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3733,15 +3746,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3757,18 +3774,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
+          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3779,15 +3796,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3803,18 +3824,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3825,19 +3846,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3853,12 +3874,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
+          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3875,19 +3896,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3898,23 +3915,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3925,19 +3942,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3948,17 +3965,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
+          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3975,19 +3992,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3998,17 +4015,17 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
+          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4025,19 +4042,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4048,17 +4065,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
+          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4075,19 +4092,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4098,23 +4115,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
+          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4125,19 +4142,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/2731110</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4148,17 +4161,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4175,19 +4188,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4198,17 +4211,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
+          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4225,19 +4238,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4248,23 +4257,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
+          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4275,19 +4284,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4298,23 +4303,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
+          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4325,19 +4330,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4348,23 +4353,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Consider reserving I.P address on DR side when configuring ASR</t>
+          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4375,19 +4380,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,18 +4408,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4425,19 +4430,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,12 +4458,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
+          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4475,19 +4480,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,12 +4508,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4525,19 +4530,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,12 +4558,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
+          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4575,19 +4580,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,18 +4608,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4625,19 +4630,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,12 +4658,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4675,19 +4680,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,12 +4708,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
+          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4725,19 +4730,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,12 +4758,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4775,19 +4780,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,18 +4808,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
+          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4825,19 +4830,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,12 +4858,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
+          <t>Consider reserving I.P address on DR side when configuring ASR</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4875,19 +4880,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,18 +4908,18 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4925,19 +4930,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,12 +4958,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
+          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4975,19 +4980,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,18 +5008,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5025,19 +5030,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,12 +5058,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
+          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5075,19 +5080,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5103,18 +5108,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5125,19 +5130,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5153,18 +5158,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
+          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5175,19 +5180,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5203,18 +5208,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
+          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5225,19 +5230,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5253,18 +5258,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5275,19 +5280,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5303,12 +5308,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer’s existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
+          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5325,15 +5330,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5344,17 +5353,17 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5371,15 +5380,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5390,17 +5403,17 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5417,15 +5430,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5436,17 +5453,17 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>For SAP database server encryption, use the SAP HANA native encryption technology. If you're using Azure SQL Database, use Transparent Data Encryption (TDE) offered by the DBMS provider to secure your data and log files, and ensure the backups are also encrypted.</t>
+          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5463,15 +5480,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5482,23 +5503,23 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled by default</t>
+          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5509,15 +5530,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5528,17 +5553,17 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5555,15 +5580,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5574,23 +5603,23 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5601,15 +5630,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5620,17 +5653,17 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5647,15 +5680,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5666,23 +5703,23 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes</t>
+          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5693,15 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5712,23 +5753,23 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5739,15 +5780,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5758,17 +5803,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer’s existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5785,7 +5830,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5793,7 +5838,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5809,12 +5854,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>When you enable Microsoft Defender for Cloud Standard for SAP, make sure to exclude the SAP database servers from any policy that installs endpoint protection.</t>
+          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5831,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5855,12 +5904,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access.</t>
+          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5877,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5901,18 +5954,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5923,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5931,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5947,18 +6000,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) with SAML 2.0 can also provide SSO to a range of SAP applications and platforms like SAP NetWeaver, SAP HANA, and the SAP Cloud Platform</t>
+          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5969,15 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5998,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Make sure you harden the operating system to eradicate vulnerabilities that could lead to attacks on the SAP database.</t>
+          <t>Encrypting SAP HANA database servers on Azrue uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6015,14 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6043,7 +6105,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6060,15 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6089,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6106,15 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6135,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6152,15 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6171,17 +6245,17 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Disk config for Oracle, SQL, HANA</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6196,12 +6270,21 @@
         </is>
       </c>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="n"/>
+      <c r="H115" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6210,262 +6293,787 @@
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="n"/>
-      <c r="B116" s="21" t="n"/>
-      <c r="C116" s="21" t="n"/>
+      <c r="A116" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B116" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C116" s="21" t="inlineStr">
+        <is>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+        </is>
+      </c>
       <c r="D116" s="21" t="n"/>
-      <c r="E116" s="21" t="n"/>
+      <c r="E116" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="n"/>
+      <c r="H116" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="n"/>
+      <c r="L116" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="n"/>
-      <c r="B117" s="21" t="n"/>
-      <c r="C117" s="21" t="n"/>
+      <c r="A117" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B117" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C117" s="21" t="inlineStr">
+        <is>
+          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+        </is>
+      </c>
       <c r="D117" s="21" t="n"/>
-      <c r="E117" s="21" t="n"/>
+      <c r="E117" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="n"/>
+      <c r="H117" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="n"/>
+      <c r="L117" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="n"/>
-      <c r="B118" s="21" t="n"/>
-      <c r="C118" s="21" t="n"/>
+      <c r="A118" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B118" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C118" s="21" t="inlineStr">
+        <is>
+          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="n"/>
+      <c r="E118" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="n"/>
-      <c r="I118" s="15" t="n"/>
+      <c r="H118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="n"/>
+      <c r="L118" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="n"/>
-      <c r="B119" s="21" t="n"/>
-      <c r="C119" s="21" t="n"/>
+      <c r="A119" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B119" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C119" s="21" t="inlineStr">
+        <is>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+        </is>
+      </c>
       <c r="D119" s="21" t="n"/>
-      <c r="E119" s="21" t="n"/>
+      <c r="E119" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="21" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="n"/>
+      <c r="L119" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
-      <c r="I120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
-      <c r="I121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+        </is>
+      </c>
       <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+        </is>
+      </c>
       <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
-      <c r="I124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+        </is>
+      </c>
       <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+        </is>
+      </c>
       <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+        </is>
+      </c>
       <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+        </is>
+      </c>
       <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Disk config for Oracle, SQL, HANA</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9144,7 +9752,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F116" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
+          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5730,19 +5730,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5763,13 +5763,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
+          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer’s existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5780,19 +5780,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5803,17 +5799,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer’s existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
+          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5830,15 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
+          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5881,14 +5881,14 @@
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5909,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
+          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5926,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5955,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
+          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5979,12 +5975,16 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
-      <c r="I109" s="15" t="n"/>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
+          <t>Encrypting SAP HANA database servers on Azrue uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,19 +6022,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6055,13 +6055,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Encrypting SAP HANA database servers on Azrue uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
+          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6072,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6105,13 +6105,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6122,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6155,13 +6155,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6172,19 +6172,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6222,19 +6222,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6255,13 +6255,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6272,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6322,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6372,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6405,13 +6405,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6422,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6455,13 +6455,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6472,19 +6472,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6505,13 +6505,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,7 +6522,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6534,7 +6534,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6572,19 +6572,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6605,13 +6605,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,19 +6622,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6650,18 +6646,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6672,15 +6668,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6718,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6751,13 +6751,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6768,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6818,19 +6818,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6851,13 +6851,13 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6868,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6901,13 +6901,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6918,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6951,13 +6951,13 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6968,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,17 +6991,17 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+          <t>Disk config for Oracle, SQL, HANA</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7016,21 +7016,12 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7039,41 +7030,16 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>Disk config for Oracle, SQL, HANA</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
@@ -9752,7 +9718,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F132" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Automation</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ACSS</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure doesn't currently support combining ASCS and db HA in the same Linux Pacemaker cluster; separate them into individual clusters. However, you can combine up to five multiple central-services clusters into a pair of VMs.</t>
+          <t>Azure Center for SAP solutions (ACSS) is an Azure offering that makes SAP a top-level workload on Azure. ACSS is an end-to-end solution that enables you to create and run SAP systems as a unified workload on Azure and provides a more seamless foundation for innovation. You can take advantage of the management capabilities for both new and existing Azure-based SAP systems.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/center-sap-solutions/overview</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-center-sap-solutions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>4620dc87-e948-4ce8-8426-f3e6e5d7bd85</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1105,17 +1109,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity and Disaster Recovery</t>
+          <t>Automation</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SDAF</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use a Standard Load Balancer SKU in front of ASCS and DB clusters</t>
+          <t>Azure supports automating SAP deployments in Linux and Windows. SAP Deployment Automation Framework is an open-source orchestration tool that can deploy, install, and maintain SAP environments.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,15 +1136,19 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I9" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-platform-automation-and-devops</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sap-automation</t>
+        </is>
+      </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>5d75e99d-624d-4afe-91d9-e17adc580790</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1156,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Backup and restore</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Both VMs in the HA pair should be deployed in an availability set, or Availability Zones should be the same size and have the same storage configuration</t>
+          <t>Perform a point-in-time recovery for your production databases at any point and in a time frame that meets your RTO; point-in-time recovery typically includes operator errors deleting data either on the DBMS layer or through SAP, incidentally</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1178,7 +1186,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/data-platform</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1186,7 +1194,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>d17f6f39-a377-48a2-931f-5ead3ebe33a8</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1202,12 +1210,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Native database replication technology should be used to synchronize the database in a HA pair.</t>
+          <t>Test the backup and recovery times to verify that they meet your RTO requirements for restoring all systems simultaneously after a disaster.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1222,17 +1230,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>c4b8e117-930b-4dbd-ae50-7bc5faf6f91a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1248,18 +1252,18 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Perform a point-in-time recovery for your production databases at any point and in a time frame that meets your RTO; point-in-time recovery typically includes operator errors deleting data either on the DBMS layer or through SAP, incidentally</t>
+          <t>You can replicate standard storage between paired regions, but you can't use standard storage to store your databases or virtual hard disks. You can replicate backups only between paired regions that you use. For all your other data, run your replication by using native DBMS features like SQL Server Always On or SAP HANA System Replication. Use a combination of Site Recovery, rsync or robocopy, and other third-party software for the SAP application layer.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1270,15 +1274,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>b651423c-8552-42db-a545-5cb50c05527a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1294,12 +1302,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>The CIDR for the primary virtual network (VNet) shouldn't conflict or overlap with the CIDR of the DR site's Vnet</t>
+          <t>When using Azure Availability Zones to achieve high availability, you must consider latency between SAP application servers and database servers. For zones with high latencies, operational procedures need to be in place to ensure that SAP application servers and database servers are running in the same zone at all times.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1314,13 +1322,21 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
+      <c r="H13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>aa208dca-784f-46c6-9014-cc919c542dc9</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1336,18 +1352,18 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use Site Recovery to replicate an application server to a DR site. Site Recovery can also help with replicating central-services cluster VMs to the DR site. When you invoke DR, you'll need to reconfigure the Linux Pacemaker cluster on the DR site (for example, replace the VIP or SBD, run corosync.conf, and more).</t>
+          <t>Set up ExpressRoute connections from on-premises to the primary and secondary Azure disaster recovery regions. Also, as an alternative to using ExpressRoute, consider setting up VPN connections from on-premises to the primary and secondary Azure disaster recovery regions.</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1356,13 +1372,21 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
+        </is>
+      </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1378,18 +1402,18 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Native database replication should be used to synchronize data to the DR site, rather than Azure Site Recovery</t>
+          <t>Replicate key vault contents like certificates, secrets, or keys across regions so you can decrypt data in the DR region.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1398,13 +1422,17 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="n"/>
+      <c r="H15" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/disaster-recovery-guidance</t>
+        </is>
+      </c>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>d2b30195-b11d-4a8f-a672-28b2b4169a7c</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1420,18 +1448,18 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>High availability</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Consider the availability of SAP software against single points of failure. This includes single points of failure within applications such as DBMSs utilized in SAP NetWeaver and SAP S/4HANA architectures, SAP ABAP and ASCS + SCS. Also, other tools such as SAP Web Dispatcher.</t>
+          <t>Peer the primary and disaster recovery virtual networks. For example, for HANA System Replication, an SAP HANA DB virtual network needs to be peered to the disaster recovery site's SAP HANA DB virtual network.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1442,19 +1470,15 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-s4hana</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
+          <t>05f1101d-250f-40e7-b2a1-b674ab50edbd</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1470,18 +1494,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>High availability</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>For SAP and SAP databases, consider implementing automatic failover clusters. In Windows, Windows Server Failover Clustering supports failover. In Linux, Linux Pacemaker or third-party tools like SIOS Protection Suite and Veritas InfoScale support failover.</t>
+          <t>If you use Azure NetApp Files storage for your SAP deployments, at a minimum, create two Azure NetApp Files accounts in the Premium tier, in two regions.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1492,19 +1516,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-service-levels</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/choose-service-level-azure-netapp-files-hpc-applications/2-identify-decision-criteria</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
+          <t>d3351bf7-628a-46de-917d-dfc11d3b6b40</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1520,12 +1544,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>High availability</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure doesn't support architectures in which the primary and secondary VMs share storage for DBMS data. For the DBMS layer, the common architecture pattern is to replicate databases at the same time and with different storage stacks than the ones that the primary and secondary VMs use.</t>
+          <t>Native database replication technology should be used to synchronize the database in a HA pair.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
+          <t>726a1d3e-5508-4a06-9d54-93f4b50040c1</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,12 +1594,12 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>High availability</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>The DBMS data and transaction/redo log files are stored in Azure supported block storage or Azure NetApp Files. Azure Files or Azure Premium Files isn't supported as storage for DBMS data and/or redo log files with SAP workload.</t>
+          <t>The CIDR for the primary virtual network (VNet) shouldn't conflict or overlap with the CIDR of the DR site's VNet</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1592,19 +1616,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/virtual-network/virtual-networks-faq</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
+          <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1620,12 +1644,12 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>High availability</t>
+          <t>Disaster recovery</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>You can use Azure shared disks in Windows for ASCS + SCS components and specific high-availability scenarios. Set up your failover clusters separately for SAP application layer components and the DBMS layer. Azure doesn't currently support high-availability architectures that combine SAP application layer components and the DBMS layer into one failover cluster.</t>
+          <t>Use Site Recovery to replicate an application server to a DR site. Site Recovery can also help with replicating central-services cluster VMs to the DR site. When you invoke DR, you'll need to reconfigure the Linux Pacemaker cluster on the DR site (for example, replace the VIP or SBD, run corosync.conf, and more).</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1640,21 +1664,17 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
+          <t>0258ed30-fe42-434f-87b9-58f91f908e0a</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1675,7 +1695,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Most failover clusters for SAP application layer components (ASCS) and the DBMS layer require a virtual IP address for a failover cluster.  Azure Load Balancer should handle the virtual IP address for all other cases. One design principle is to use one load balancer per cluster configuration. We recommend that you use the standard version of the load balancer (Standard Load Balancer SKU).</t>
+          <t>Consider the availability of SAP software against single points of failure. This includes single points of failure within applications such as DBMSs utilized in SAP NetWeaver and SAP S/4HANA architectures, SAP ABAP and ASCS + SCS. Also, other tools such as SAP Web Dispatcher.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1692,19 +1712,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1725,7 +1745,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Make sure the Floating IP is enabled on the Load balancer</t>
+          <t>For SAP and SAP databases, consider implementing automatic failover clusters. In Windows, Windows Server Failover Clustering supports failover. In Linux, Linux Pacemaker or third-party tools like SIOS Protection Suite and Veritas InfoScale support failover.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1742,19 +1762,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-supported-configurations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1775,7 +1795,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Before you deploy your high-availability infrastructure, and depending on the region you choose, determine whether to deploy with an Azure availability set or an availability zone.</t>
+          <t>Azure doesn't support architectures in which the primary and secondary VMs share storage for DBMS data. For the DBMS layer, the common architecture pattern is to replicate databases at the same time and with different storage stacks than the ones that the primary and secondary VMs use.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1792,19 +1812,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-sap-guide?tabs=windows</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1825,7 +1845,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>If you want to meet the infrastructure SLAs for your applications for SAP components (central services, application servers, and databases), you must choose the same high availability options (VMs, availability sets, availability zones) for all components.</t>
+          <t>The DBMS data and transaction/redo log files are stored in Azure supported block storage or Azure NetApp Files. Azure Files or Azure Premium Files isn't supported as storage for DBMS data and/or redo log files with SAP workload.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1842,15 +1862,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/dbms-guide-general</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1871,7 +1895,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Do not mix servers of different roles in the same availability set. Keep central services VMs, database VMs, application VMs in their own availability sets</t>
+          <t>You can use Azure shared disks in Windows for ASCS + SCS components and specific high-availability scenarios. Set up your failover clusters separately for SAP application layer components and the DBMS layer. Azure doesn't currently support high-availability architectures that combine SAP application layer components and the DBMS layer into one failover cluster.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1888,19 +1912,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-guide-wsfc-shared-disk</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1921,13 +1945,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>You can't deploy Azure availability sets within an Azure availability zone unless you use proximity placement groups.</t>
+          <t>Most failover clusters for SAP application layer components (ASCS) and the DBMS layer require a virtual IP address for a failover cluster.  Azure Load Balancer should handle the virtual IP address for all other cases. One design principle is to use one load balancer per cluster configuration. We recommend that you use the standard version of the load balancer (Standard Load Balancer SKU).</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1938,19 +1962,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-standard-load-balancer-outbound-connections</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,7 +1995,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>When you create availability sets, use the maximum number of fault domains and update domains available. For example, if you deploy more than two VMs in one availability set, use the maximum number of fault domains (three) and enough update domains to limit the effect of potential physical hardware failures, network outages, or power interruptions, in addition to Azure planned maintenance. The default number of fault domains is two, and you can't change it online later.</t>
+          <t>Make sure the Floating IP is enabled on the Load balancer</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1988,19 +2012,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-ha-ports-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2021,7 +2045,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>When you use Azure proximity placement groups in an availability set deployment, all three SAP components (central services, application server, and database) should be in the same proximity placement group.</t>
+          <t>Before you deploy your high-availability infrastructure, and depending on the region you choose, determine whether to deploy with an Azure availability set or an availability zone.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2038,14 +2062,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2066,7 +2095,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use one proximity placement group per SAP SID. Groups don't span across Availability Zones or Azure regions</t>
+          <t>If you want to meet the infrastructure SLAs for your applications for SAP components (central services, application servers, and databases), you must choose the same high availability options (VMs, availability sets, availability zones) for all components.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2083,14 +2112,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://www.microsoft.com/licensing/docs/view/Service-Level-Agreements-SLA-for-Online-Services?lang=1</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2101,23 +2130,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Make quota requests for correct VM SKU and Zones</t>
+          <t>Do not mix servers of different roles in the same availability set. Keep central services VMs, database VMs, application VMs in their own availability sets</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2126,12 +2155,21 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2142,23 +2180,23 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>You can't deploy Azure availability sets within an Azure availability zone unless you use proximity placement groups.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2169,19 +2207,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2192,23 +2230,23 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
+          <t>When you create availability sets, use the maximum number of fault domains and update domains available. For example, if you deploy more than two VMs in one availability set, use the maximum number of fault domains (three) and enough update domains to limit the effect of potential physical hardware failures, network outages, or power interruptions, in addition to Azure planned maintenance. The default number of fault domains is two, and you can't change it online later.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2219,19 +2257,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2242,23 +2280,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
+          <t>When you use Azure proximity placement groups in an availability set deployment, all three SAP components (central services, application server, and database) should be in the same proximity placement group.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2269,7 +2307,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2277,7 +2315,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2288,23 +2326,23 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>Use one proximity placement group per SAP SID. Groups don't span across Availability Zones or Azure regions</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2315,19 +2353,15 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2338,23 +2372,23 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>Use one of the following services to run SAP central services clusters, depending on the operating system.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,17 +2397,21 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="n"/>
+      <c r="H35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>bca3b10e-0ff5-4aec-ac16-4c4bd1a1c13f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2384,17 +2422,17 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
+          <t>Azure doesn't currently support combining ASCS and DB HA in the same Linux Pacemaker cluster; separate them into individual clusters. However, you can combine up to five multiple central-services clusters into a pair of VMs.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2411,19 +2449,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-suse-multi-sid</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>ed46b937-913e-4018-9c62-8393ab037e53</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2434,17 +2472,17 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC – Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>Deploy both VMs in the high-availability pair in an availability set or in availability zones. These VMs should be the same size and have the same storage configuration.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2459,17 +2497,17 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2480,17 +2518,17 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>High availability</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC – Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>Azure supports installing and configuring SAP HANA and ASCS/SCS and ERS instances on the same high availability cluster running on Red Hat Enterprise Linux (RHEL).</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2507,15 +2545,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-with-hana-ascs-ers-dialog-instance</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>7f684ebc-95da-425e-b329-e782dbed050f</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2526,23 +2568,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
+          <t>Run all production systems on Premium managed SSDs and use Azure NetApp Files or Ultra Disk Storage. At least the OS disk should be on the Premium tier so you can achieve better performance and the best SLA.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2553,15 +2595,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
-        </is>
-      </c>
-      <c r="I39" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>07991f7d-6598-4d90-9431-45c62605d3a5</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2572,23 +2618,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP HANA</t>
+          <t>You should run SAP HANA on Azure only on the types of storage that are certified by SAP. Note that certain volumes must be run on certain disk configurations, where applicable. These configurations include enabling Write Accelerator and using Premium storage. You also need to ensure that the file system that runs on storage is compatible with the DBMS that runs on the machine.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2599,15 +2645,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-operations-storage</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1?source=recommendations</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>73cdaecc-7d74-48d8-a040-88416eebc98c</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2618,23 +2668,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
+          <t>Consider configuring high availability depending on the type of storage you use for your SAP workloads. Some storage services available in Azure are not supported by Azure Site Recovery, so your high availability configuration may differ.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2645,15 +2695,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/disaster-recovery-overview-guide#storage</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/2-explore-disaster-recovery-sap-workloads</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>51904867-a70e-4fa0-b4ff-3e6292846d7c</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2664,23 +2718,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Business Continuity and Disaster Recovery</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
+          <t>Different native Azure storage services (like Azure Files, Azure NetApp Files, Azure Shared Disk) may not be available in all regions. So to have similar SAP setup on the DR region after failover, ensure the respective storage service is offered in DR site.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2691,7 +2745,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://azure.microsoft.com/ja-jp/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2699,7 +2753,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>1ac2d928-c9b7-42c6-ba18-23b1aea78693</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2710,17 +2764,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
+          <t>Make quota requests for correct VM SKU and Zones</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2735,17 +2789,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2756,17 +2806,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP BTP</t>
+          <t>Automate SAP System Start-Stop to manage costs.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2783,7 +2833,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2791,7 +2841,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2812,13 +2862,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2829,14 +2879,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2847,17 +2902,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>enforce existing Management Group policies to SAP Subscriptions</t>
+          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2874,19 +2929,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2897,23 +2952,23 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
+          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2924,19 +2979,15 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2947,23 +2998,23 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2974,19 +3025,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2997,23 +3048,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3022,21 +3073,17 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3047,23 +3094,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
+          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3074,15 +3121,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3093,23 +3144,23 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3118,17 +3169,17 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3139,23 +3190,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3166,19 +3217,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3189,17 +3236,17 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
+          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3216,19 +3263,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3239,23 +3281,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Help protect your HANA database by using the Azure Backup service.</t>
+          <t>Implement SSO to SAP HANA</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3266,19 +3308,15 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
-        </is>
-      </c>
-      <c r="I54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+        </is>
+      </c>
+      <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3289,17 +3327,17 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
+          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3316,14 +3354,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3334,23 +3372,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
+          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3361,14 +3399,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3379,17 +3417,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
+          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3406,19 +3444,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3429,23 +3462,23 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
+          <t>Implement SSO to SAP BTP</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3456,14 +3489,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3474,17 +3507,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
+          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3501,14 +3534,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3519,17 +3552,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
+          <t>enforce existing Management Group policies to SAP Subscriptions</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3546,19 +3579,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3569,23 +3602,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
+          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3596,19 +3629,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3619,23 +3652,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
+          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3646,19 +3679,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3669,17 +3702,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
+          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3696,19 +3729,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3719,23 +3752,23 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3746,19 +3779,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3769,23 +3798,23 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
+          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3796,19 +3825,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3819,17 +3844,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3846,19 +3871,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3869,17 +3894,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
+          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3896,15 +3921,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3920,12 +3949,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
+          <t>Help protect your HANA database by using the Azure Backup service.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3942,19 +3971,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3970,12 +3999,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
+          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3992,19 +4021,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4020,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
+          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4042,19 +4067,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4070,12 +4091,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
+          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4092,19 +4113,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4120,12 +4141,12 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
+          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4142,7 +4163,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4150,7 +4171,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4166,12 +4187,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4188,19 +4209,15 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4216,12 +4233,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
+          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4238,15 +4255,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4262,12 +4283,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
+          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4284,15 +4305,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4308,12 +4333,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
+          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4330,19 +4355,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4358,18 +4383,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
+          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4380,19 +4405,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4403,17 +4428,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4430,19 +4455,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4453,17 +4478,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
+          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4480,19 +4505,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4503,23 +4528,23 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4530,19 +4555,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4553,17 +4578,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
+          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4580,19 +4605,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4603,17 +4624,17 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
+          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4630,19 +4651,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4653,17 +4674,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4680,19 +4701,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4703,17 +4724,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
+          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4730,19 +4751,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4753,17 +4774,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
+          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4780,19 +4801,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,23 +4824,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
+          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,19 +4851,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4853,23 +4870,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Consider reserving I.P address on DR side when configuring ASR</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4880,19 +4897,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4903,23 +4920,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4930,19 +4947,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4953,23 +4966,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
+          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4980,19 +4993,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5003,17 +5012,17 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5030,19 +5039,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5053,17 +5062,17 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
+          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5080,19 +5089,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5108,12 +5117,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5130,19 +5139,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5158,12 +5167,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5180,19 +5189,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5208,12 +5217,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
+          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5230,19 +5239,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,12 +5267,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5280,19 +5289,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,18 +5317,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
+          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5330,19 +5339,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,18 +5367,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5380,19 +5389,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,12 +5417,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
+          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5430,19 +5439,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,12 +5467,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
+          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5480,19 +5489,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,12 +5517,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
+          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5530,19 +5539,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5567,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
+          <t>Consider reserving I.P address on DR side when configuring ASR</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,19 +5589,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,12 +5617,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5630,19 +5639,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,18 +5667,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
+          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5680,19 +5689,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,18 +5717,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5730,19 +5739,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,12 +5767,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer’s existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
+          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5780,15 +5789,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5799,17 +5812,17 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5826,19 +5839,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5849,17 +5862,17 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
+          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5876,19 +5889,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5899,23 +5912,23 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
+          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,15 +5939,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5945,23 +5962,23 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5972,19 +5989,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5995,23 +6012,23 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Encrypting SAP HANA database servers on Azrue uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
+          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6022,19 +6039,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6045,23 +6062,23 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
+          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6072,19 +6089,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,23 +6112,23 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6122,19 +6139,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6145,17 +6162,17 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
+          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6172,19 +6189,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6195,23 +6212,23 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6222,19 +6239,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6245,23 +6262,23 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6272,19 +6289,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6295,17 +6312,17 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6322,19 +6339,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6345,17 +6362,17 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6372,19 +6389,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6395,23 +6412,23 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6422,19 +6439,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6445,17 +6462,17 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer's existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6472,19 +6489,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6500,18 +6512,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6522,19 +6534,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6550,18 +6562,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6572,19 +6584,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6600,18 +6612,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6622,7 +6634,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6630,7 +6642,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6646,12 +6658,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6668,19 +6680,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6696,12 +6708,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>Encrypting SAP HANA database servers on Azure uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6718,19 +6730,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6746,18 +6758,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6768,19 +6780,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6796,18 +6808,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6818,19 +6830,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6846,18 +6858,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6868,19 +6880,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6896,18 +6908,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6918,19 +6930,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6946,18 +6958,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6968,19 +6980,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6991,23 +7003,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Disk config for Oracle, SQL, HANA</t>
+          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7016,12 +7028,21 @@
         </is>
       </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d579266b-cca2-475f-aa1a-bfe9d55d04c3</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7030,208 +7051,645 @@
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+        </is>
+      </c>
       <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+        </is>
+      </c>
       <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+        </is>
+      </c>
       <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
       <c r="P137" s="25" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="21" t="n"/>
-      <c r="B138" s="21" t="n"/>
-      <c r="C138" s="21" t="n"/>
+      <c r="A138" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B138" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C138" s="21" t="inlineStr">
+        <is>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+        </is>
+      </c>
       <c r="D138" s="21" t="n"/>
-      <c r="E138" s="21" t="n"/>
+      <c r="E138" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
-      <c r="L138" s="25" t="n"/>
+      <c r="L138" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M138" s="25" t="n"/>
       <c r="N138" s="25" t="n"/>
       <c r="O138" s="25" t="n"/>
       <c r="P138" s="25" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="21" t="n"/>
-      <c r="B139" s="21" t="n"/>
-      <c r="C139" s="21" t="n"/>
+      <c r="A139" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B139" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C139" s="21" t="inlineStr">
+        <is>
+          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+        </is>
+      </c>
       <c r="D139" s="21" t="n"/>
-      <c r="E139" s="21" t="n"/>
+      <c r="E139" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
-      <c r="L139" s="25" t="n"/>
+      <c r="L139" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M139" s="25" t="n"/>
       <c r="N139" s="25" t="n"/>
       <c r="O139" s="25" t="n"/>
       <c r="P139" s="25" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="21" t="n"/>
-      <c r="B140" s="21" t="n"/>
-      <c r="C140" s="21" t="n"/>
+      <c r="A140" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B140" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C140" s="21" t="inlineStr">
+        <is>
+          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D140" s="21" t="n"/>
-      <c r="E140" s="21" t="n"/>
+      <c r="E140" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
-      <c r="L140" s="25" t="n"/>
+      <c r="L140" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M140" s="25" t="n"/>
       <c r="N140" s="25" t="n"/>
       <c r="O140" s="25" t="n"/>
       <c r="P140" s="25" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="21" t="n"/>
-      <c r="B141" s="21" t="n"/>
-      <c r="C141" s="21" t="n"/>
+      <c r="A141" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B141" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C141" s="21" t="inlineStr">
+        <is>
+          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+        </is>
+      </c>
       <c r="D141" s="21" t="n"/>
-      <c r="E141" s="21" t="n"/>
+      <c r="E141" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
-      <c r="L141" s="25" t="n"/>
+      <c r="L141" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M141" s="25" t="n"/>
       <c r="N141" s="25" t="n"/>
       <c r="O141" s="25" t="n"/>
       <c r="P141" s="25" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="21" t="n"/>
-      <c r="B142" s="21" t="n"/>
-      <c r="C142" s="21" t="n"/>
+      <c r="A142" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C142" s="21" t="inlineStr">
+        <is>
+          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D142" s="21" t="n"/>
-      <c r="E142" s="21" t="n"/>
+      <c r="E142" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
-      <c r="L142" s="25" t="n"/>
+      <c r="L142" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M142" s="25" t="n"/>
       <c r="N142" s="25" t="n"/>
       <c r="O142" s="25" t="n"/>
       <c r="P142" s="25" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="21" t="n"/>
-      <c r="B143" s="21" t="n"/>
-      <c r="C143" s="21" t="n"/>
+      <c r="A143" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C143" s="21" t="inlineStr">
+        <is>
+          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+        </is>
+      </c>
       <c r="D143" s="21" t="n"/>
-      <c r="E143" s="21" t="n"/>
+      <c r="E143" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="n"/>
+      <c r="H143" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
-      <c r="L143" s="25" t="n"/>
+      <c r="L143" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M143" s="25" t="n"/>
       <c r="N143" s="25" t="n"/>
       <c r="O143" s="25" t="n"/>
@@ -9718,7 +10176,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F131" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>In the case of using Azure Premium Storage with SAP HANA, Azure Standard SSD storage can be used to select a cost-conscious storage solution. However, please note that choosing Standard SSD or Standard HDD Azure storage will affect the SLA of the individual VMs. Also, for systems with lower I/O throughput and low latency, such as non-production environments, lower series VMs can be used.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
+          <t>As a lower-cost alternative configuration (multipurpose), you can choose a low-performance SKU for your non-production HANA database server VMs. However, it is important to note that some VM types, such as E-series, are not HANA certified (SAP HANA Hardware Directory) or cannot achieve storage latency of less than 1ms.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP HANA</t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
+          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
+          <t>Implement SSO to SAP HANA</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
+          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP BTP</t>
+          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
+          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>enforce existing Management Group policies to SAP Subscriptions</t>
+          <t>Implement SSO to SAP BTP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
+          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
+          <t>enforce existing Management Group policies to SAP Subscriptions</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
+          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
+          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
+          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
+          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
+          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Help protect your HANA database by using the Azure Backup service.</t>
+          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
+          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
+          <t>Help protect your HANA database by using the Azure Backup service.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
+          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
+          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
+          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
+          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
+          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
+          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
+          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
+          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
+          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,7 +4626,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4651,19 +4643,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,7 +4676,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
+          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4701,19 +4693,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,13 +4722,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
+          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
+          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
+          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,12 +4867,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4897,19 +4889,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,13 +4922,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
+          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4947,7 +4939,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4955,7 +4947,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,15 +4985,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,7 +5018,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
+          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5039,19 +5035,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,13 +5064,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
+          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5089,19 +5081,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,17 +5150,17 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
+          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
+          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
+          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
+          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
+          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Consider reserving I.P address on DR side when configuring ASR</t>
+          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
+          <t>Consider reserving I.P address on DR side when configuring ASR</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
+          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
+          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
+          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
+          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
+          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
+          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
+          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
+          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
+          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer's existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
+          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
+          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
+          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer's existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
+          <t>Review SAP HANA database backups for Azure VMs.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
+          <t>Review Site Recovery built-in monitoring, where used for SAP.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Encrypting SAP HANA database servers on Azure uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
+          <t>Review the Monitoring the SAP HANA System Landscape guidance.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
+          <t>Review Oracle Database in Azure Linux VM backup strategies.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Review the use of Azure Blob Storage with SQL Server 2016.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
+          <t>Review the use of Automated Backup v2 for Azure VMs.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Enabling Write accelerator for M series when using premium disks(V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>Test availability zone latency.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+          <t>Activate SAP EarlyWatch Alert for all SAP components.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+          <t>Review SAP application server to database server latency using SAP ABAPMeter report /SSA/CAT.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>Review SQL Server performance monitoring using CCMS.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Test network latency between SAP application layer VMs and DBMS VMs (NIPING).</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Review SAP HANA studio alerts.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+          <t>Perform SAP HANA health checks using HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+          <t>Encrypting SAP HANA database servers on Azure uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2852,23 +2852,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>In the case of using Azure Premium Storage with SAP HANA, Azure Standard SSD storage can be used to select a cost-conscious storage solution. However, please note that choosing Standard SSD or Standard HDD Azure storage will affect the SLA of the individual VMs. Also, for systems with lower I/O throughput and low latency, such as non-production environments, lower series VMs can be used.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2879,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2902,23 +2897,23 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
+          <t>As a lower-cost alternative configuration (multipurpose), you can choose a low-performance SKU for your non-production HANA database server VMs. However, it is important to note that some VM types, such as E-series, are not HANA certified (SAP HANA Hardware Directory) or cannot achieve storage latency of less than 1ms.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2924,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,13 +2953,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2979,15 +2970,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>Enforce Principal propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3020,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3058,7 +3053,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,17 +3068,16 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3098,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3133,7 +3127,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3148,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3172,14 +3166,14 @@
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3200,7 +3194,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3217,15 +3211,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3261,16 +3259,17 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3290,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP HANA</t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3307,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3315,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
+          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3353,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
+          <t>Implement SSO to SAP HANA</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3398,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
+          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3443,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3471,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP BTP</t>
+          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3488,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
+          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3551,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>enforce existing Management Group policies to SAP Subscriptions</t>
+          <t>Implement SSO to SAP BTP</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3578,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3602,23 +3596,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
+          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3623,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,13 +3651,13 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
+          <t>enforce existing Management Group policies to SAP Subscriptions</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3679,19 +3668,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3701,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
+          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3718,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3751,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
+          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3768,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,7 +3801,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
+          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3825,15 +3818,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,13 +3851,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
+          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3871,19 +3868,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3896,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
+          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3913,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,17 +3932,17 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Help protect your HANA database by using the Azure Backup service.</t>
+          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3971,19 +3959,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,17 +3982,17 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
+          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4021,15 +4009,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,12 +4037,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
+          <t>Help protect your HANA database by using the Azure Backup service.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4067,15 +4059,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4091,12 +4087,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
+          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4113,19 +4109,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4138,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
+          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,7 +4155,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4171,7 +4163,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,7 +4184,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
+          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4209,15 +4201,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,13 +4234,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
+          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4255,19 +4251,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4280,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
+          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4297,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,12 +4321,12 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
+          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4355,19 +4343,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4383,18 +4371,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
+          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4393,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,7 +4426,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4455,19 +4443,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,13 +4476,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
+          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4505,19 +4493,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4526,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4543,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4588,7 +4576,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
+          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4605,15 +4593,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4634,13 +4626,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
+          <t>Perform a quality check for SAP HANA on the provisioned Azure infrastructure to verify that provisioned VMs comply with SAP HANA on Azure best practices.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4651,19 +4643,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/QualityCheck</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4684,13 +4672,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
+          <t>For each Azure subscription, run a latency test on Azure availability zones before zonal deployment to choose low-latency zones for deployment of SAP on Azure.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4701,19 +4689,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-zones</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4734,7 +4722,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
+          <t>Run the Resiliency Report to ensure that the configuration of the entire provisioned Azure infrastructure (Compute, Database, Networking, Storage, Site Recovery) complies with the configuration defined by Cloud Adaption Framework for Azure.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4751,19 +4739,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-how-to-improve-reliability</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4784,7 +4772,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
+          <t>Implement threat protection by using the Microsoft Sentinel solution for SAP. Use this solution to monitor your SAP systems and detect sophisticated threats throughout the business logic and application layers.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4801,19 +4789,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/sentinel/sap/deployment-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4829,18 +4817,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
+          <t>Azure tagging can be leveraged to logically group and track resources, automate their deployments, and most importantly, provide visibility on the incurred costs.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4851,15 +4839,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4880,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t>Use inter-VM latency monitoring for latency-sensitive applications.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4897,19 +4889,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-test-latency?tabs=windows</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4930,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4947,15 +4935,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide-storage</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4976,13 +4968,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
+          <t>Exclude all the database file systems and executable programs from antivirus scans. Including them could lead to performance problems. Check with the database vendors for prescriptive details on the exclusion list. For example, Oracle recommends excluding /oracle/&lt;sid&gt;/sapdata from antivirus scans.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,7 +4985,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5001,7 +4993,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5022,13 +5014,13 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
+          <t>Consider collecting full database statistics for non-HANA databases after migration. For example, implement SAP note 1020260 - Delivery of Oracle statistics.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5039,19 +5031,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://sapit-forme-prod.authentication.eu11.hana.ondemand.com/login</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5072,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
+          <t>Consider using Oracle Automatic Storage Management (ASM) for all Oracle deployments that use SAP on Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5089,19 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/configure-oracle-asm</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5112,17 +5100,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>For SAP on Azure running Oracle, a collection of SQL scripts can help you diagnose performance problems.  Automatic Workload Repository (AWR) reports contain valuable information for diagnosing problems in the Oracle system. We recommend that you run an AWR report during several sessions and choose peak times for it, to ensure broad coverage for the analysis.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5139,19 +5127,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/announcement-sap-on-azure-oracle-performance-efficiency-scripts/ba-p/3725178</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5162,23 +5150,23 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5189,19 +5177,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5217,12 +5205,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5239,19 +5227,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5255,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
+          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5277,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5317,18 +5305,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
+          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5327,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,7 +5360,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5389,19 +5377,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,13 +5410,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
+          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5439,19 +5427,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5460,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5477,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5505,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
+          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5527,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5567,18 +5555,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Consider reserving I.P address on DR side when configuring ASR</t>
+          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5589,19 +5577,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5610,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Public IP assignment to VM running SAP Workload is not recommended.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5651,7 +5639,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5660,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
+          <t>Consider reserving IP address on DR side when configuring ASR</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5677,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,18 +5705,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5739,19 +5727,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5767,12 +5755,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
+          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5777,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5810,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5827,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5860,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5877,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5910,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5944,14 +5932,14 @@
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5960,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5977,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
+          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6027,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6055,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6077,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6117,12 +6105,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
+          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6139,19 +6127,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,13 +6160,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
+          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6189,19 +6177,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6210,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
+          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6227,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
+          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6289,19 +6277,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,7 +6310,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
+          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6351,7 +6339,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,13 +6360,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
+          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6389,19 +6377,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6410,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
+          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6427,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6460,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer's existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
+          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6477,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://me.sap.com/notes/2015553</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,23 +6500,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
+          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6534,19 +6527,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,17 +6550,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
+          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer's existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6584,19 +6577,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6596,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
+          <t>Review SAP HANA database backups for Azure VMs.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6623,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6631,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,23 +6642,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
+          <t>Review Site Recovery built-in monitoring, where used for SAP.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6680,19 +6669,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,17 +6688,17 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Encrypting SAP HANA database servers on Azure uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
+          <t>Review the Monitoring the SAP HANA System Landscape guidance.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6730,19 +6715,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6734,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
+          <t>Review Oracle Database in Azure Linux VM backup strategies.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6761,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6780,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Review the use of Azure Blob Storage with SQL Server 2016.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6807,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,17 +6825,17 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
+          <t>Review the use of Automated Backup v2 for Azure VMs.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6880,19 +6852,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,23 +6870,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Enabling Write accelerator for M series when using premium disks(V1)</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6928,21 +6895,12 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6911,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>Test availability zone latency.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6938,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6956,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+          <t>Activate SAP EarlyWatch Alert for all SAP components.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6983,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7006,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+          <t>Review SAP application server to database server latency using SAP ABAPMeter report /SSA/CAT.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7080,19 +7033,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>Review SQL Server performance monitoring using CCMS.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7128,21 +7081,12 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7097,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Test network latency between SAP application layer VMs and DBMS VMs (NIPING).</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7124,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7147,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Review SAP HANA studio alerts.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7174,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7253,23 +7192,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+          <t>Perform SAP HANA health checks using HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7219,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7242,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7264,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,18 +7342,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7425,19 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7387,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7409,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7437,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+          <t>Encrypting SAP HANA database servers on Azure uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7459,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,18 +7487,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7575,19 +7509,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7537,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7559,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7587,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7609,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,256 +7630,795 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
       <c r="P158" s="25" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="21" t="n"/>
-      <c r="B159" s="21" t="n"/>
-      <c r="C159" s="21" t="n"/>
+      <c r="A159" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C159" s="21" t="inlineStr">
+        <is>
+          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+        </is>
+      </c>
       <c r="D159" s="21" t="n"/>
-      <c r="E159" s="21" t="n"/>
+      <c r="E159" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="21" t="n"/>
-      <c r="H159" s="15" t="n"/>
+      <c r="H159" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="25" t="n"/>
+      <c r="L159" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M159" s="25" t="n"/>
       <c r="N159" s="25" t="n"/>
       <c r="O159" s="25" t="n"/>
@@ -10176,7 +10649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F160" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -1712,7 +1712,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/sap-high-availability-architecture-scenario</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I21" s="15" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Make quota requests for correct VM SKU and Zones</t>
+          <t>Automate SAP System Start-Stop to manage costs.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2789,13 +2789,17 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2816,13 +2820,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Automate SAP System Start-Stop to manage costs.</t>
+          <t>In the case of using Azure Premium Storage with SAP HANA, Azure Standard SSD storage can be used to select a cost-conscious storage solution. However, please note that choosing Standard SSD or Standard HDD Azure storage will affect the SLA of the individual VMs. Also, for systems with lower I/O throughput and low latency, such as non-production environments, lower series VMs can be used.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2833,7 +2837,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/optimize-your-azure-costs-by-automating-sap-system-start-stop/ba-p/2120675</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2841,7 +2845,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2852,23 +2856,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>As a lower-cost alternative configuration (multipurpose), you can choose a low-performance SKU for your non-production HANA database server VMs. However, it is important to note that some VM types, such as E-series, are not HANA certified (SAP HANA Hardware Directory) or cannot achieve storage latency of less than 1ms.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2879,19 +2883,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2912,13 +2911,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Enforce Principle propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2929,19 +2928,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
+          <t>https://learn.microsoft.com/azure/well-architected/sap/design-areas/security</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2962,7 +2961,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
+          <t>Enforce Principal propagation for forwarding the identity from SAP cloud application to SAP on-premises (Including IaaS) through cloud connector</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2982,12 +2981,16 @@
           <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
-      <c r="I47" s="15" t="n"/>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
+          <t>Implement SSO to SAP SaaS applications like SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics and SAP C4C with Azure AD using SAML.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3025,19 +3028,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/scenario-azure-first-sap-identity-integration</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3073,17 +3071,21 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
+          <t>Implement SSO to SAP NetWeaver-based web applications like SAP Fiori and SAP Web GUI by using SAML.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3119,21 +3121,17 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3154,7 +3152,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
+          <t>You can implement SSO to SAP GUI by using SAP NetWeaver SSO or a partner solution.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3169,17 +3167,21 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3215,17 +3217,17 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3246,7 +3248,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
+          <t>For SSO for SAP GUI and web browser access, implement SNC / Kerberos/SPNEGO (simple and protected GSSAPI negotiation mechanism) due to its ease of configuration and maintenance. For SSO with X.509 client certificates, consider the SAP Secure Login Server, which is a component of the SAP SSO solution.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3263,14 +3265,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
+          <t>https://blogs.sap.com/2017/07/12/sap-single-sign-on-protect-your-sap-landscape-with-x.509-certificates/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3291,7 +3293,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP HANA</t>
+          <t>Implement SSO by using OAuth for SAP NetWeaver to allow third-party or custom applications to access SAP NetWeaver OData services.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3308,7 +3310,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-netweaver-tutorial#configure-sap-netweaver-for-oauth</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3316,7 +3318,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3337,7 +3339,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
+          <t>Implement SSO to SAP HANA</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3354,14 +3356,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/saphana-tutorial</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3382,7 +3384,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
+          <t>Consider Azure AD an identity provider for SAP systems hosted on RISE. For more information, see Integrating the Service with Azure AD.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3399,14 +3401,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration#connectivity-with-sap-rise</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3427,7 +3429,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
+          <t>For applications that access SAP, you might want to use principal propagation to establish SSO.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3444,14 +3446,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
+          <t>https://github.com/azuredevcollege/SAP/blob/master/sap-oauth-saml-flow/README.md</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3472,7 +3474,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Implement SSO to SAP BTP</t>
+          <t>If you're using SAP BTP services or SaaS solutions that require SAP Identity Authentication Service (IAS), consider implementing SSO between SAP Cloud Identity Authentication Services and Azure AD to access those SAP services. This integration lets SAP IAS act as a proxy identity provider and forwards authentication requests to Azure AD as the central user store and identity provider.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3489,14 +3491,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-identity-authentication-tutorial</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3517,7 +3519,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
+          <t>Implement SSO to SAP BTP</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3534,14 +3536,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-hana-cloud-platform-tutorial</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3552,17 +3554,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>enforce existing Management Group policies to SAP Subscriptions</t>
+          <t>If you're using SAP SuccessFactors, consider using the Azure AD automated user provisioning. With this integration, as you add new employees to SAP SuccessFactors, you can automatically create their user accounts in Azure AD. Optionally, you can create user accounts in Microsoft 365 or other SaaS applications that are supported by Azure AD. Use write-back of the email address to SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3579,19 +3581,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+          <t>https://learn.microsoft.com/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3612,13 +3609,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
+          <t>enforce existing Management Group policies to SAP Subscriptions</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3629,19 +3626,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3662,7 +3659,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
+          <t>Integrate tightly coupled applications into the same SAP subscription to avoid additional routing and management complexity</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3684,14 +3681,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
+          <t xml:space="preserve">Leverage Subscription as scale unit and scaling our resources, consider deploying subscription per environment eg. Sandbox, non-prod, prod </t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3729,19 +3726,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3762,13 +3759,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
+          <t>Ensure quota increase as a part of subscription provisioning (e.g. total available VM cores within a subscription)</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3779,15 +3776,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/quotas/quotas-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3808,13 +3809,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
+          <t>The Quota API is a REST API that you can use to view and manage quotas for Azure services. Consider using it if necessary.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3825,7 +3826,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
+          <t>https://learn.microsoft.com/rest/api/reserved-vm-instances/quotaapi?branch=capacity</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3833,7 +3834,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3854,7 +3855,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
+          <t>If deploying to an availability zone, ensure that the VM's zone deployment is available once the quota has been approved. Submit a support request with the subscription, VM series, number of CPUs and availability zone required.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3871,19 +3872,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/quotas/quickstart-increase-quota-portal</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3904,13 +3900,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
+          <t>Ensure required services and features are available within the chosen deployment regions eg. ANF , Zone etc.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3921,19 +3917,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3944,23 +3940,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Help protect your HANA database by using the Azure Backup service.</t>
+          <t>Leverage Azure resource tag for cost categorization and resource grouping (: BillTo, Department (or Business Unit), Environment (Production, Stage, Development), Tier (Web Tier, Application Tier), Application Owner, ProjectName)</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3971,19 +3967,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-resource-organization</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4004,13 +4000,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
+          <t>Help protect your HANA database by using the Azure Backup service.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4021,15 +4017,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4045,18 +4045,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
+          <t>If you deploy Azure NetApp Files for your HANA, Oracle, or DB2 database, use the Azure Application Consistent Snapshot tool (AzAcSnap) to take application-consistent snapshots. AzAcSnap also supports Oracle databases. Consider using AzAcSnap on a central VM rather than on individual VMs.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4067,7 +4067,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azacsnap-introduction</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4075,7 +4075,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4096,13 +4096,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
+          <t>Ensure time-zone matches between the operating system and the SAP system.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4113,19 +4113,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-management-and-monitoring</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4146,13 +4142,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
+          <t>Don't group different application services in the same cluster. For example, don't combine DRBD and central services clusters on the same cluster. However, you can use the same Pacemaker cluster to manage approximately five different central services (multi-SID cluster).</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4163,15 +4159,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel-multi-sid</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4192,13 +4192,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
+          <t>Consider running dev/test systems in a snooze model to save and optimize Azure run costs.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4209,7 +4209,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+          <t>https://azure.microsoft.com/pricing/offers/dev-test/</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4217,7 +4217,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
+          <t>If you partner with customers by managing their SAP estates, consider Azure Lighthouse. Azure Lighthouse allows managed service providers to use Azure native identity services to authenticate to the customers' environment. It puts the control in the hands of customers, because they can revoke access at any time and audit service providers' actions.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4255,19 +4255,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/lighthouse/overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4288,13 +4284,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
+          <t>Use Azure Update Manager to check the status of available updates for a single VM or multiple VMs and consider scheduling regular patching.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4305,19 +4301,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview</t>
         </is>
       </c>
       <c r="I75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
         </is>
       </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,18 +4329,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
+          <t>Optimize and manage SAP Basis operations by using SAP Landscape Management (LaMa). Use the SAP LaMa connector for Azure to relocate, copy, clone, and refresh SAP systems.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4355,19 +4351,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/lama-installation</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4388,13 +4384,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
+          <t>Use Azure Monitor for SAP solutions to monitor your SAP workloads(SAP HANA, high-availability SUSE clusters, and SQL systems) on Azure. Consider supplementing Azure Monitor for SAP solutions with SAP Solution Manager.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4405,19 +4401,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/about-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4438,13 +4434,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Run a VM Extension for SAP check. VM Extension for SAP uses the assigned managed identity of a virtual machine (VM) to access VM monitoring and configuration data. The check ensures that all performance metrics in your SAP application come from the underlying Azure Extension for SAP.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4455,19 +4451,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/vm-extension-for-sap</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4488,7 +4484,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4505,19 +4501,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4538,13 +4534,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
+          <t>Use Connection Monitor in Azure Network Watcher to monitor latency metrics for SAP databases and application servers. Or collect and display network latency measurements by using Azure Monitor.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4555,19 +4551,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/connection-monitor-overview</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -5112,23 +5108,23 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Use Azure Site Recovery monitoring to maintain the health of the disaster recovery service for SAP application servers.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5139,19 +5135,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5167,12 +5163,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5189,19 +5185,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5222,7 +5218,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
+          <t>If the virtual machine's DNS or virtual name is not changed during migration to Azure, Background DNS and virtual names connect many system interfaces in the SAP landscape, and customers are only sometimes aware of the interfaces that developers define over time. Connection challenges arise between various systems when virtual or DNS names change after migrations, and it's recommended to retain DNS aliases to prevent these types of difficulties.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5251,7 +5247,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5267,12 +5263,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
+          <t>Use different DNS zones to distinguish each environment (sandbox, development, preproduction, and production) from each other. The exception is for SAP deployments with their own VNet; here, private DNS zones might not be necessary.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5289,19 +5285,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5322,13 +5318,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
+          <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5339,19 +5335,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2731110</t>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5372,13 +5368,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>It is not supported to deploy any NVA between SAP application and SAP Database server</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5389,19 +5385,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/planning-guide</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://me.sap.com/notes/2731110</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5422,7 +5418,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5439,19 +5435,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/?source=recommendations</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5472,7 +5468,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
+          <t>Consider deploying network virtual appliances (NVAs) between regions only if partner NVAs are used. NVAs between regions or VNets aren't required if native NVAs are present. When you're deploying partner networking technologies and NVAs, follow the vendor's guidance to verify conflicting configurations with Azure networking.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5489,19 +5485,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/network-virtual-appliances/reliability</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5517,18 +5513,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Public I.P assignment to VM running SAP Workload is not recommended.</t>
+          <t>Virtual WAN manages connectivity between spoke VNets for virtual-WAN-based topologies (no need to set up user-defined routing [UDR] or NVAs), and maximum network throughput for VNet-to-VNet traffic in the same virtual hub is 50 gigabits per second. If necessary, SAP landing zones can use VNet peering to connect to other landing zones and overcome this bandwidth limitation.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5539,19 +5535,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/architecture/networking/hub-spoke-vwan-architecture</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5572,7 +5568,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Consider reserving I.P address on DR side when configuring ASR</t>
+          <t>Public IP assignment to VM running SAP Workload is not recommended.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5589,19 +5585,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5622,7 +5618,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Consider reserving IP address on DR side when configuring ASR</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5639,19 +5635,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5672,13 +5668,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5689,19 +5685,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5717,12 +5713,12 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>While Azure does help you to create multiple delegated subnets in a VNet, only one delegated subnet can exist in a VNet for Azure NetApp Files. Attempts to create a new volume will fail if you use more than one delegated subnet for Azure NetApp Files.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5739,19 +5735,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-delegate-subnet</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5772,7 +5768,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5789,19 +5785,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
+          <t>https://learn.microsoft.com/azure/well-architected/services/networking/azure-firewall?toc=%2Fazure%2Ffirewall%2Ftoc.json&amp;bc=%2Fazure%2Ffirewall%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5822,7 +5818,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Application Gateway and Web Application Firewall have limitations when Application Gateway serves as a reverse proxy for SAP web apps, as shown in the comparison between Application Gateway, SAP Web Dispatcher, and other third-party services.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5839,19 +5835,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/expose-sap-process-orchestration-on-azure</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5872,7 +5868,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5889,19 +5885,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5922,7 +5918,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
+          <t>Take advantage of Web Application Firewall policies in Azure Front Door when you're using Azure Front Door and Application Gateway to protect HTTP/S applications. Lock down Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5939,7 +5935,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5951,7 +5947,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5972,7 +5968,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
+          <t>Use a web application firewall to scan your traffic when it's exposed to the internet. Another option is to use it with your load balancer or with resources that have built-in firewall capabilities like Application Gateway or third-party solutions.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5989,19 +5985,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6022,7 +6018,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
+          <t>Use Virtual WAN for Azure deployments in new, large, or global networks where you need global transit connectivity across Azure regions and on-premises locations. With this approach, you won't need to manually set up transitive routing for Azure networking, and you can follow a standard for SAP on Azure deployments.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6039,19 +6035,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6067,18 +6063,18 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
+          <t>To prevent data leakage, use Azure Private Link to securely access platform as a service resources like Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory, and more. Azure Private Endpoint can also help to secure traffic between VNets and services like Azure Storage, Azure Backup, and more. Traffic between your VNet and the Private Endpoint enabled service travels across the Microsoft global network, which prevents its exposure to the public internet.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6089,19 +6085,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6122,13 +6118,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
+          <t>Make sure that Azure accelerated networking is enabled on the VMs used in the SAP application and DBMS layers.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6139,19 +6135,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview?tabs=redhat</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6172,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
+          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6189,19 +6185,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-multivip-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6222,13 +6218,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
+          <t>You can use application security group (ASG) and NSG rules to define network security access-control lists between the SAP application and DBMS layers. ASGs group virtual machines to help manage their security.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6239,19 +6235,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6272,13 +6268,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
+          <t>Placing of the SAP application layer and SAP DBMS in different Azure VNets that aren't peered isn't supported.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6289,19 +6285,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6322,13 +6318,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
+          <t>For optimal network latency with SAP applications, consider using Azure proximity placement groups.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6339,19 +6335,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://me.sap.com/notes/2015553</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6372,7 +6368,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
+          <t>It is NOT supported at all to run an SAP Application Server layer and DBMS layer split between on-premise and Azure. Both layers need to completely reside either on-premise or in Azure.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6401,7 +6397,7 @@
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6422,7 +6418,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
+          <t>It isn't recommended to host the database management system (DBMS) and application layers of SAP systems in different VNets and connect them with VNet peering because of the substantial costs that excessive network traffic between the layers can produce. Recommend using subnets within the Azure virtual network to separate the SAP application layer and DBMS layer.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6439,19 +6435,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+          <t>https://me.sap.com/notes/2015553</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6472,13 +6468,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer's existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
+          <t>If using Load Balancer with Linux guest operating systems, check that the Linux network parameter net.ipv4.tcp_timestamps is set to 0.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6489,14 +6485,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+          <t>https://learn.microsoft.com/azure/sap/workloads/high-availability-guide-rhel</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6507,17 +6508,17 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
+          <t>For SAP RISE/ECS deployments, virtual peering is the preferred way to establish connectivity with customer's existing Azure environment. Both the SAP vnet and customer vnet(s) are protected with network security groups (NSG), enabling communication on SAP and database ports through the vnet peering</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6534,19 +6535,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/sap/workloads/rise-integration</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6557,23 +6554,23 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
+          <t>Review SAP HANA database backups for Azure VMs.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6584,19 +6581,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/backup/sap-hana-database-about</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6607,23 +6600,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
+          <t>Review Site Recovery built-in monitoring, where used for SAP.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6634,7 +6627,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-monitor-and-troubleshoot</t>
         </is>
       </c>
       <c r="I122" s="15" t="n"/>
@@ -6642,7 +6635,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6653,17 +6646,17 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
+          <t>Review the Monitoring the SAP HANA System Landscape guidance.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6680,19 +6673,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://me.sap.com/notes/3019299/E</t>
-        </is>
-      </c>
+          <t>https://help.sap.com/docs/SAP_HANA_PLATFORM/c4d7c773af4a4e5dbebb6548d6e2d4f4/e3111d2ebb5710149510cc120646bf3f.html?locale=en-US</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6703,23 +6692,23 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Encrypting SAP HANA database servers on Azure uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
+          <t>Review Oracle Database in Azure Linux VM backup strategies.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6730,19 +6719,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-machines/workloads/oracle/oracle-database-backup-strategies</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6753,17 +6738,17 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
+          <t>Review the use of Azure Blob Storage with SQL Server 2016.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6780,19 +6765,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/sql/relational-databases/tutorial-use-azure-blob-storage-service-with-sql-server-2016?view=sql-server-ver16</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6803,23 +6784,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Review the use of Automated Backup v2 for Azure VMs.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6830,19 +6811,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-sql/virtual-machines/windows/automated-backup?view=azuresql</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6853,23 +6829,23 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
+          <t>Enabling Write accelerator for M series when using premium disks(V1)</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6878,21 +6854,12 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6903,17 +6870,17 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Test availability zone latency.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6930,19 +6897,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6953,23 +6915,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+          <t>Activate SAP EarlyWatch Alert for all SAP components.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6980,19 +6942,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+          <t>https://support.sap.com/en/offerings-programs/support-services/earlywatch-alert.html</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7003,23 +6965,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+          <t>Review SAP application server to database server latency using SAP ABAPMeter report /SSA/CAT.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7030,19 +6992,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/sap-on-azure-general-update-march-2019/ba-p/377456</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+          <t>https://me.sap.com/notes/0002879613</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7053,23 +7015,23 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+          <t>Review SQL Server performance monitoring using CCMS.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7078,21 +7040,12 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7103,23 +7056,23 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+          <t>Test network latency between SAP application layer VMs and DBMS VMs (NIPING).</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7130,19 +7083,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://me.sap.com/notes/500235</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+          <t>https://me.sap.com/notes/1100926/E</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7153,17 +7106,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Review SAP HANA studio alerts.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7180,19 +7133,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/sap/large-instances/hana-monitor-troubleshoot</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7203,23 +7151,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Performant</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Perform SAP HANA health checks using HANA_Configuration_Minichecks.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7230,19 +7178,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+          <t>https://me.sap.com/notes/1969700</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7258,18 +7201,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+          <t>If you run Windows and Linux VMs in Azure, on-premises, or in other cloud environments, you can use the Update management center in Azure Automation to manage operating system updates, including security patches.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7280,19 +7223,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7308,12 +7251,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Routinely review the SAP security OSS notes because SAP releases highly critical security patches, or hot fixes, that require immediate action to protect your SAP systems.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7330,14 +7273,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-security-operations</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7353,18 +7301,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>For SAP on SQL Server, you can disable the SQL Server system administrator account because the SAP systems on SQL Server don't use the account. Ensure that another user with system administrator rights can access the server before disabling the original system administrator account.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7375,19 +7323,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7403,12 +7346,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>Disable xp_cmdshell. The SQL Server feature xp_cmdshell enables a SQL Server internal operating system command shell. It's a potential risk in security audits.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7425,19 +7368,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://me.sap.com/notes/3019299/E</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7453,18 +7396,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+          <t>Encrypting SAP HANA database servers on Azure uses SAP HANA native encryption technology. Additionally, if you are using SQL Server on Azure, use Transparent Data Encryption (TDE) to protect your data and log files and ensure that your backups are also encrypted.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7475,19 +7418,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7503,18 +7446,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+          <t>Azure Storage encryption is enabled for all Azure Resource Manager and classic storage accounts, and can't be disabled. Because your data is encrypted by default, you don't need to modify your code or applications to use Azure Storage encryption.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7525,19 +7468,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-service-encryption</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7553,12 +7496,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7575,19 +7518,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7603,18 +7546,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+          <t>It is recommended to LOCK the Azure Resources post successful deployment to safeguard against unauthorized changes. You can also enforce LOCK constraints and rules on your per-subscription basis using customized Azure policies(Custome role).</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7625,19 +7568,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7653,12 +7596,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7675,19 +7618,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/soft-delete-overview</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7696,240 +7639,745 @@
       <c r="P143" s="25" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="21" t="n"/>
-      <c r="B144" s="21" t="n"/>
-      <c r="C144" s="21" t="n"/>
+      <c r="A144" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="21" t="inlineStr">
+        <is>
+          <t>Based on existing requirements, regulatory and compliance controls (internal/external) - Determine what Azure Policies and Azure RBAC role are needed</t>
+        </is>
+      </c>
       <c r="D144" s="21" t="n"/>
-      <c r="E144" s="21" t="n"/>
+      <c r="E144" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="21" t="n"/>
-      <c r="H144" s="15" t="n"/>
+      <c r="H144" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/security-controls-policy</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="25" t="n"/>
+      <c r="L144" s="25" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M144" s="25" t="n"/>
       <c r="N144" s="25" t="n"/>
       <c r="O144" s="25" t="n"/>
       <c r="P144" s="25" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="21" t="n"/>
-      <c r="B145" s="21" t="n"/>
-      <c r="C145" s="21" t="n"/>
+      <c r="A145" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="21" t="inlineStr">
+        <is>
+          <t>When enabling Microsoft Defender for Endpoint on SAP environment, recommend excluding data and log files on DBMS servers instead of targeting all servers. Follow your DBMS vendor's recommendations when excluding target files.</t>
+        </is>
+      </c>
       <c r="D145" s="21" t="n"/>
-      <c r="E145" s="21" t="n"/>
+      <c r="E145" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="25" t="n"/>
+      <c r="L145" s="25" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M145" s="25" t="n"/>
       <c r="N145" s="25" t="n"/>
       <c r="O145" s="25" t="n"/>
       <c r="P145" s="25" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="21" t="n"/>
-      <c r="B146" s="21" t="n"/>
-      <c r="C146" s="21" t="n"/>
+      <c r="A146" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="21" t="inlineStr">
+        <is>
+          <t>Delegate an SAP admin custom role with just-in-time access of Microsoft Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D146" s="21" t="n"/>
-      <c r="E146" s="21" t="n"/>
+      <c r="E146" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="21" t="n"/>
-      <c r="H146" s="15" t="n"/>
+      <c r="H146" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/just-in-time-access-overview?tabs=defender-for-container-arch-aks</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="25" t="n"/>
+      <c r="L146" s="25" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M146" s="25" t="n"/>
       <c r="N146" s="25" t="n"/>
       <c r="O146" s="25" t="n"/>
       <c r="P146" s="25" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="21" t="n"/>
-      <c r="B147" s="21" t="n"/>
-      <c r="C147" s="21" t="n"/>
+      <c r="A147" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="21" t="inlineStr">
+        <is>
+          <t>encrypt data in transit by integrating the third-party security product with secure network communications (SNC) for DIAG (SAP GUI), RFC, and SPNEGO for HTTPS</t>
+        </is>
+      </c>
       <c r="D147" s="21" t="n"/>
-      <c r="E147" s="21" t="n"/>
+      <c r="E147" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="21" t="n"/>
-      <c r="H147" s="15" t="n"/>
+      <c r="H147" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="25" t="n"/>
+      <c r="L147" s="25" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M147" s="25" t="n"/>
       <c r="N147" s="25" t="n"/>
       <c r="O147" s="25" t="n"/>
       <c r="P147" s="25" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="21" t="n"/>
-      <c r="B148" s="21" t="n"/>
-      <c r="C148" s="21" t="n"/>
+      <c r="A148" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="21" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
+      <c r="E148" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="21" t="n"/>
-      <c r="H148" s="15" t="n"/>
+      <c r="H148" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-encryption-key-model-get?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="25" t="n"/>
+      <c r="L148" s="25" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M148" s="25" t="n"/>
       <c r="N148" s="25" t="n"/>
       <c r="O148" s="25" t="n"/>
       <c r="P148" s="25" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="21" t="n"/>
-      <c r="B149" s="21" t="n"/>
-      <c r="C149" s="21" t="n"/>
+      <c r="A149" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="21" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D149" s="21" t="n"/>
-      <c r="E149" s="21" t="n"/>
+      <c r="E149" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="21" t="n"/>
-      <c r="H149" s="15" t="n"/>
+      <c r="H149" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="25" t="n"/>
+      <c r="L149" s="25" t="inlineStr">
+        <is>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+        </is>
+      </c>
       <c r="M149" s="25" t="n"/>
       <c r="N149" s="25" t="n"/>
       <c r="O149" s="25" t="n"/>
       <c r="P149" s="25" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="21" t="n"/>
-      <c r="B150" s="21" t="n"/>
-      <c r="C150" s="21" t="n"/>
+      <c r="A150" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="21" t="inlineStr">
+        <is>
+          <t>To control and manage disk encryption keys and secrets for non-HANA Windows and non-Windows operating systems, use Azure Key Vault. SAP HANA isn't supported with Azure Key Vault, so you must use alternate methods like SAP ABAP or SSH keys.</t>
+        </is>
+      </c>
       <c r="D150" s="21" t="n"/>
-      <c r="E150" s="21" t="n"/>
+      <c r="E150" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="21" t="n"/>
-      <c r="H150" s="15" t="n"/>
+      <c r="H150" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/certificates/certificate-scenarios</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="25" t="n"/>
+      <c r="L150" s="25" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M150" s="25" t="n"/>
       <c r="N150" s="25" t="n"/>
       <c r="O150" s="25" t="n"/>
       <c r="P150" s="25" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="21" t="n"/>
-      <c r="B151" s="21" t="n"/>
-      <c r="C151" s="21" t="n"/>
+      <c r="A151" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="21" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="21" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="D151" s="21" t="n"/>
-      <c r="E151" s="21" t="n"/>
+      <c r="E151" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="21" t="n"/>
-      <c r="H151" s="15" t="n"/>
+      <c r="H151" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="25" t="n"/>
+      <c r="L151" s="25" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M151" s="25" t="n"/>
       <c r="N151" s="25" t="n"/>
       <c r="O151" s="25" t="n"/>
       <c r="P151" s="25" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="21" t="n"/>
-      <c r="B152" s="21" t="n"/>
-      <c r="C152" s="21" t="n"/>
+      <c r="A152" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C152" s="21" t="inlineStr">
+        <is>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+        </is>
+      </c>
       <c r="D152" s="21" t="n"/>
-      <c r="E152" s="21" t="n"/>
+      <c r="E152" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="25" t="n"/>
+      <c r="L152" s="25" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M152" s="25" t="n"/>
       <c r="N152" s="25" t="n"/>
       <c r="O152" s="25" t="n"/>
       <c r="P152" s="25" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="21" t="n"/>
-      <c r="B153" s="21" t="n"/>
-      <c r="C153" s="21" t="n"/>
+      <c r="A153" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C153" s="21" t="inlineStr">
+        <is>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+        </is>
+      </c>
       <c r="D153" s="21" t="n"/>
-      <c r="E153" s="21" t="n"/>
+      <c r="E153" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="25" t="n"/>
+      <c r="L153" s="25" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M153" s="25" t="n"/>
       <c r="N153" s="25" t="n"/>
       <c r="O153" s="25" t="n"/>
       <c r="P153" s="25" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="21" t="n"/>
-      <c r="B154" s="21" t="n"/>
-      <c r="C154" s="21" t="n"/>
+      <c r="A154" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C154" s="21" t="inlineStr">
+        <is>
+          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+        </is>
+      </c>
       <c r="D154" s="21" t="n"/>
-      <c r="E154" s="21" t="n"/>
+      <c r="E154" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="25" t="n"/>
+      <c r="L154" s="25" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M154" s="25" t="n"/>
       <c r="N154" s="25" t="n"/>
       <c r="O154" s="25" t="n"/>
       <c r="P154" s="25" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="21" t="n"/>
-      <c r="B155" s="21" t="n"/>
-      <c r="C155" s="21" t="n"/>
+      <c r="A155" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C155" s="21" t="inlineStr">
+        <is>
+          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+        </is>
+      </c>
       <c r="D155" s="21" t="n"/>
-      <c r="E155" s="21" t="n"/>
+      <c r="E155" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="25" t="n"/>
+      <c r="L155" s="25" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M155" s="25" t="n"/>
       <c r="N155" s="25" t="n"/>
       <c r="O155" s="25" t="n"/>
       <c r="P155" s="25" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="21" t="n"/>
-      <c r="B156" s="21" t="n"/>
-      <c r="C156" s="21" t="n"/>
+      <c r="A156" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C156" s="21" t="inlineStr">
+        <is>
+          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+        </is>
+      </c>
       <c r="D156" s="21" t="n"/>
-      <c r="E156" s="21" t="n"/>
+      <c r="E156" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="25" t="n"/>
+      <c r="L156" s="25" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M156" s="25" t="n"/>
       <c r="N156" s="25" t="n"/>
       <c r="O156" s="25" t="n"/>
       <c r="P156" s="25" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="21" t="n"/>
-      <c r="B157" s="21" t="n"/>
-      <c r="C157" s="21" t="n"/>
+      <c r="A157" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C157" s="21" t="inlineStr">
+        <is>
+          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+        </is>
+      </c>
       <c r="D157" s="21" t="n"/>
-      <c r="E157" s="21" t="n"/>
+      <c r="E157" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="21" t="n"/>
-      <c r="H157" s="15" t="n"/>
+      <c r="H157" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="25" t="n"/>
+      <c r="L157" s="25" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M157" s="25" t="n"/>
       <c r="N157" s="25" t="n"/>
       <c r="O157" s="25" t="n"/>
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="n"/>
-      <c r="B158" s="21" t="n"/>
-      <c r="C158" s="21" t="n"/>
+      <c r="A158" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C158" s="21" t="inlineStr">
+        <is>
+          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
+        </is>
+      </c>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="n"/>
+      <c r="E158" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="n"/>
+      <c r="L158" s="25" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10176,7 +10624,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F144" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -10728,6 +10728,11 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>This check has not been looked at yet</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -10750,6 +10755,11 @@
           <t>Network Topology and Connectivity</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>There is an action item associated to this check</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -10772,6 +10782,11 @@
           <t>Security, Governance and Compliance</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>This check has been verified, and there are no further action items associated to it</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -10781,12 +10796,17 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Not required</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Recommendation understood, but not needed by current requirements</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -7996,18 +7996,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8018,14 +8018,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8046,7 +8051,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Customize role-based access control (RBAC) roles for SAP on Azure spoke subscriptions to avoid accidental network-related changes</t>
+          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8063,19 +8068,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8096,13 +8101,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Isolate DMZs and NVAs from the rest of the SAP estate, configure Azure Private Link, and securely manage and control the SAP on Azure resources</t>
+          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8113,19 +8118,19 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://blogs.sap.com/2019/07/21/sap-security-operations-on-azure/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8146,7 +8151,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Consider using Microsoft anti-malware software on Azure to protect your virtual machines from malicious files, adware, and other threats.</t>
+          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8163,19 +8168,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8196,13 +8201,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>For even more powerful protection, consider using Microsoft Defender for Endpoint.</t>
+          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8213,19 +8218,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-endpoint?view=o365-worldwide</t>
+          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8246,13 +8251,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Isolate the SAP application and database servers from the internet or from the on-premises network by passing all traffic through the hub virtual network, which is connected to the spoke network by virtual network peering. The peered virtual networks guarantee that the SAP on Azure solution is isolated from the public internet.</t>
+          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8263,19 +8268,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/guide/sap/sap-whole-landscape</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8296,13 +8301,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>For internet-facing applications like SAP Fiori, make sure to distribute load per application requirements while maintaining security levels. For Layer 7 security, you can use a third-party Web Application Firewall (WAF) available in the Azure Marketplace.</t>
+          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8313,19 +8318,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-security-governance-and-compliance</t>
+          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8334,50 +8339,16 @@
       <c r="P157" s="25" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="21" t="inlineStr">
-        <is>
-          <t>Security, Governance and Compliance</t>
-        </is>
-      </c>
-      <c r="B158" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C158" s="21" t="inlineStr">
-        <is>
-          <t>To enable secure communication in Azure Monitor for SAP solutions, you can choose to use either a root certificate or a server certificate. We highly recommend that you use root certificates.</t>
-        </is>
-      </c>
+      <c r="A158" s="21" t="n"/>
+      <c r="B158" s="21" t="n"/>
+      <c r="C158" s="21" t="n"/>
       <c r="D158" s="21" t="n"/>
-      <c r="E158" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E158" s="21" t="n"/>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/sap/monitor/enable-tls-azure-monitor-sap-solutions</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="H158" s="15" t="n"/>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="25" t="inlineStr">
-        <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
-        </is>
-      </c>
+      <c r="L158" s="25" t="n"/>
       <c r="M158" s="25" t="n"/>
       <c r="N158" s="25" t="n"/>
       <c r="O158" s="25" t="n"/>
@@ -10624,7 +10595,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F158" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -6168,7 +6168,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
+          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting (Enabling Floating IP) will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>

--- a/spreadsheet/macrofree/sap_checklist.en.xlsx
+++ b/spreadsheet/macrofree/sap_checklist.en.xlsx
@@ -3612,7 +3612,11 @@
           <t>enforce existing Management Group policies to SAP Subscriptions</t>
         </is>
       </c>
-      <c r="D61" s="21" t="n"/>
+      <c r="D61" s="21" t="inlineStr">
+        <is>
+          <t>Keep your management group hierarchy reasonably flat, no more than four.</t>
+        </is>
+      </c>
       <c r="E61" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5321,7 +5325,11 @@
           <t>Local and global VNet peering provide connectivity and are the preferred approaches to ensure connectivity between landing zones for SAP deployments across multiple Azure regions</t>
         </is>
       </c>
-      <c r="D96" s="21" t="n"/>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>When configuring VNet peering, use the Allow traffic to remote virtual networks setting.</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
